--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Boris Fuchs\Desktop\projekt\projekt_archivist_git\archivist\Documentation\ProjectDocumentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="19320" windowHeight="14520"/>
   </bookViews>
@@ -78,9 +83,6 @@
     <t>Freigabe</t>
   </si>
   <si>
-    <t>Martina Musterfrau, Max Mustermann</t>
-  </si>
-  <si>
     <t>FH-Studenten</t>
   </si>
   <si>
@@ -96,24 +98,12 @@
     <t>Vollständiger Titel und Name des Projektbetreuers</t>
   </si>
   <si>
-    <t>Musterfirma</t>
-  </si>
-  <si>
     <t>Hier soll eine Kurzbeschreibung des Projekts eingefügt werden. Dieser Kurztext wird neben dem Logo des Projekts (1. Bild) auf der Projektübersichtsseite zu lesen sein. Die Länge sollte ca. 2-3 Sätze betragen.</t>
   </si>
   <si>
-    <t>Mustertitel</t>
-  </si>
-  <si>
-    <t>DI Dr. Max Mustermann, BSc, MSc</t>
-  </si>
-  <si>
     <t>Liste der Namen der Studierenden, die an diesem Projekt mitarbeiten, mit Komma getrennt.</t>
   </si>
   <si>
-    <t>Bild1.jpg,Bild2.png,Bild3.gif</t>
-  </si>
-  <si>
     <t>Ausfüllhinweise: Für 1 Projekt muss jeweils 1 Zeile ausgefüllt werden. Zu verwenden ist die obige Zeile mit den Musterdaten. Die ausgeblendeten Spalten sollen nicht eingeblendet werden.</t>
   </si>
   <si>
@@ -132,24 +122,43 @@
     <t>Bei Unklarheiten können die aktuellen Projektbeschreibungen auf der Website als Referenz herangezogen werden. Bei konkreten Fragen ist Kontakt mit Stephan Drab aufzunehmen.</t>
   </si>
   <si>
-    <t>Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.
-Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext. Dies ist der Musterlangtext.</t>
-  </si>
-  <si>
-    <t>Dies ist eine Musterkurzbeschreibung. Dies ist eine Musterkurzbeschreibung.</t>
-  </si>
-  <si>
-    <t>Sommersemester 2009</t>
-  </si>
-  <si>
     <t>abgeschlossen</t>
+  </si>
+  <si>
+    <t>Archivist</t>
+  </si>
+  <si>
+    <t>logo.png,interface.png,handy_ansicht.png</t>
+  </si>
+  <si>
+    <t>Sommersemester 2017</t>
+  </si>
+  <si>
+    <t>Das Ziel von Archivist ist, ein einfach zu verwendendes digitales Notenarchiv für Musikvereine bereitzustellen. Dazu kann der Archivar eine Datenbank von Musikstücken verwalten und ent-sprechende Noten abspeichern. Dieser Ansatz ermöglicht eine einfache Übersicht über Musik-stücke, eine Suchfunktion für das Auffinden von Stücken sowie das einfache Ausdrucken von Noten.</t>
+  </si>
+  <si>
+    <t>Fuchs Boris, Paul Schmutz</t>
+  </si>
+  <si>
+    <t>FH Hagenberg</t>
+  </si>
+  <si>
+    <t>FH-Prof. DI Stephan Selinger / Breitenfellner Marcel, BSc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachdem viele Musikvereine keine digitale Absicherung ihrer Musikstücke besitzen, ist die Verwaltung eines Notenarchivs mit viel Aufwand verbunden, vor allem, wenn das Archiv aus einer Vielzahl von Musikstücken besteht.
+Aus diesem Grund bietet Archivist ein digitales Archiv für Musikstücken an, um die Organisation dieser einfach zu halten. Durch die Verwendung von Archivist kann nicht nur eine Liste von Musikstücken mit Archivnummern geführt werden, sondern auch das Speichern und Kategorisieren in von Noten selbst in digitaler Form ist möglich.
+Eine simple aber sehr hilfreiche Suchfunktion ermöglicht es dem Benutzer, ein bestimmtes Musikstück oder mehrere Musikstücke bezüglich Musiktitel, Komponist, Genre oder Archivnummer sehr effizient aufzufinden. Einige vordefinierte Filter für das Sortieren von Einträgen anhand bestimmter Kriterien unterstützen die Suchfunktion, um noch schneller Suchergebnisse zu erhalten.
+Weiters können jederzeit bereits existente Daten bearbeitet sowie neue Einträge für Musikstücke erstellt werden. Die Möglichkeit, Einzelstimmen für die Musiknoten zu speichern, erleichtert die Organisation der Noten für die einzelnen Musiker erheblich. Musiknoten werden dabei als PDF-Datei für jede Einzelstimme abgespeichert. Wird beispielsweise eine zweite Trompetenstimme für ein bestimmtes Stück benötigt, so kann die dazugehörige PDF-Datei des Musikstücks rasch ausgedruckt bzw. auch auf einem Tablet angezeigt werden.
+Zusammenfassend bietet das moderne Konzept von Archivist für Musikvereine ein nützliches Werkzeug, um deren Musikstücke in einer einfachen aber effizienten Art zu digitalisieren, was eine Vielzahl an Vorteilen bietet, um die ansonsten aufwändige Organisation eines Notenarchivs unkompliziert und für jedermann verwendbar zu gestalten.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,9 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,17 +302,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -348,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,9 +398,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,6 +450,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -620,7 +674,7 @@
     <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -682,231 +736,231 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:20" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="T2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="6" customFormat="1"/>
-    <row r="4" spans="1:20" s="6" customFormat="1"/>
-    <row r="5" spans="1:20" s="6" customFormat="1"/>
-    <row r="6" spans="1:20">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
   <sheetProtection password="E579" sheet="1" selectLockedCells="1"/>
@@ -929,12 +983,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -943,12 +997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
